--- a/data/trans_bre/P19C07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.453190456197461</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8198641004801264</v>
+        <v>0.8198641004801256</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.346540731328222</v>
@@ -649,7 +649,7 @@
         <v>1.117454727418898</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3651837035619248</v>
+        <v>0.3651837035619244</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8371984212442526</v>
+        <v>-0.7320276159702831</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.321569891205382</v>
+        <v>-1.250278151435782</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1914416093730323</v>
+        <v>-0.153162141759273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.8748244210709787</v>
+        <v>-0.9458404573180941</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2702676120489066</v>
+        <v>-0.2295645622899959</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5122820813914892</v>
+        <v>-0.4875633145544545</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2182904616110551</v>
+        <v>-0.2215126065432562</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2877945141652047</v>
+        <v>-0.2962316712071557</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.361787110987966</v>
+        <v>2.539798000482525</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.437979481160658</v>
+        <v>1.341046892096288</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.139987963435826</v>
+        <v>3.278040214643374</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.334839575875457</v>
+        <v>2.381464295679971</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.314284081160895</v>
+        <v>1.576391814687441</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.398723318971291</v>
+        <v>1.290371148489442</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.832763681678276</v>
+        <v>4.968922109569009</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.798198547927819</v>
+        <v>1.985715642103559</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.399117715030821</v>
+        <v>-1.645734984965292</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6780877573933144</v>
+        <v>-0.5920715624974702</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8592531303143722</v>
+        <v>-0.8714493202809146</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.9075682207361966</v>
+        <v>-1.018324758723495</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3031518078379125</v>
+        <v>-0.3398512424428778</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1546612640387747</v>
+        <v>-0.1448456112274029</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2167006170645492</v>
+        <v>-0.2080247273021932</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1888628156437652</v>
+        <v>-0.2138538782987179</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.450870462957401</v>
+        <v>1.366608853990442</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.263396202416878</v>
+        <v>2.363602705125197</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.61825361582656</v>
+        <v>1.633703886458961</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.980948894718366</v>
+        <v>2.015333706248042</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4620199671198144</v>
+        <v>0.4225714092400754</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.726804958097389</v>
+        <v>0.7245313157208304</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5586946352675961</v>
+        <v>0.5305755123765443</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.652437199542115</v>
+        <v>0.6736144821345884</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.395543765371444</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.930837214775848</v>
+        <v>1.930837214775847</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3183435455916961</v>
@@ -849,7 +849,7 @@
         <v>0.8302061675397124</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6246367819783307</v>
+        <v>0.6246367819783305</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.168813246295849</v>
+        <v>-3.055868190252566</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.863858883312862</v>
+        <v>-2.863512850772055</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6734721755765812</v>
+        <v>-0.5619339293871821</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2352475604661953</v>
+        <v>-0.2204845593979572</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7685821914613649</v>
+        <v>-0.7610440533475233</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4912583147496513</v>
+        <v>-0.509633556500994</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3623784297537014</v>
+        <v>-0.3250142705882922</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.07735239912258259</v>
+        <v>-0.07628434460199691</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.253806847938746</v>
+        <v>0.9680036331249297</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.954527931191843</v>
+        <v>2.810231095805158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.483358546939589</v>
+        <v>3.402230882332216</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.951534113474538</v>
+        <v>4.015876948101944</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7312316014872571</v>
+        <v>0.5806545668072038</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.017039459936169</v>
+        <v>0.8971178294337088</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.719034672531258</v>
+        <v>3.58472675727231</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.752027909567979</v>
+        <v>1.928978971048246</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.6856248191238121</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7597245317603883</v>
+        <v>0.7597245317603876</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009977260766648895</v>
@@ -949,7 +949,7 @@
         <v>0.2401050596939616</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2206764197840821</v>
+        <v>0.2206764197840819</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.9472627419751101</v>
+        <v>-0.993157796127605</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.7516449075327978</v>
+        <v>-0.7792288050186335</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.2622631487975176</v>
+        <v>-0.2284376185897057</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.3260546125980953</v>
+        <v>-0.2934721284624899</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2400634491457199</v>
+        <v>-0.2496771434645277</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1926058176435628</v>
+        <v>-0.2067285050308455</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08271939628944777</v>
+        <v>-0.07605120378529617</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08343718580010794</v>
+        <v>-0.07254364637307451</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.067872058499471</v>
+        <v>0.956345892088196</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.201519552066645</v>
+        <v>1.1936695992653</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.614941436450297</v>
+        <v>1.647053850773472</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.738771886718953</v>
+        <v>1.759449100039617</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3751108846588477</v>
+        <v>0.3211167087586712</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4366593549718253</v>
+        <v>0.418160814755892</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7169611330729422</v>
+        <v>0.6623049803561597</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.607274144934136</v>
+        <v>0.6017676840016377</v>
       </c>
     </row>
     <row r="16">
